--- a/conf-core/src/test/resources/dataloader/units-required-fields-failure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/units-required-fields-failure-test.xlsx
@@ -8,52 +8,78 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="/twiC24/jp4QHQmaIXlVKg6zKK36SE+AZawijxc29Fw0bP4RB6x2m3Z+YsFM16dhOi5Q1YcuA5AwNcQeB6W5kg==" workbookSaltValue="mp3CKO0oFlisoDrQArwULQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="18060" windowHeight="8580"/>
+    <workbookView xWindow="240" yWindow="75" windowWidth="20115" windowHeight="7995"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
+    <sheet name="Units" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="28">
-  <si>
-    <t>HEADER</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+  <si>
+    <t>Date</t>
+  </si>
+  <si>
+    <t>Version</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Copyright</t>
+  </si>
+  <si>
+    <t>License</t>
+  </si>
+  <si>
+    <t>Status</t>
+  </si>
+  <si>
+    <t>OPERATION</t>
+  </si>
+  <si>
+    <t>LGPL3</t>
+  </si>
+  <si>
+    <t>Create</t>
+  </si>
+  <si>
+    <t>Update</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>European Spallation Source (ESS)</t>
+  </si>
+  <si>
+    <t>2015/MAY/06</t>
+  </si>
+  <si>
+    <t>Template file to import units in the CCDB</t>
   </si>
   <si>
     <t>NAME</t>
   </si>
   <si>
-    <t>QUANTITY</t>
+    <t>DESCRIPTION</t>
   </si>
   <si>
     <t>SYMBOL</t>
   </si>
   <si>
-    <t>DESCRIPTION</t>
-  </si>
-  <si>
-    <t>EXPR</t>
-  </si>
-  <si>
-    <t>Unit name</t>
-  </si>
-  <si>
-    <t>Quantity</t>
-  </si>
-  <si>
-    <t>Symbol</t>
-  </si>
-  <si>
-    <t>Description</t>
-  </si>
-  <si>
-    <t>Base Unit Expression</t>
+    <t>Total names</t>
+  </si>
+  <si>
+    <t>1.0</t>
+  </si>
+  <si>
+    <t>Production</t>
   </si>
   <si>
     <t>UPDATE</t>
@@ -62,56 +88,44 @@
     <t>meter</t>
   </si>
   <si>
-    <t>length</t>
+    <t>cubic-meter</t>
+  </si>
+  <si>
+    <t>square-meter</t>
+  </si>
+  <si>
+    <t>kelvin</t>
+  </si>
+  <si>
+    <t>Length in meters</t>
+  </si>
+  <si>
+    <t>Length in inches</t>
+  </si>
+  <si>
+    <t>Volume</t>
+  </si>
+  <si>
+    <t>Area</t>
   </si>
   <si>
     <t>m</t>
   </si>
   <si>
-    <t>Length in meters</t>
-  </si>
-  <si>
     <t>in</t>
   </si>
   <si>
-    <t>Length in inches</t>
-  </si>
-  <si>
-    <t>cubic-meter</t>
-  </si>
-  <si>
     <t>m3</t>
   </si>
   <si>
-    <t>Volume</t>
-  </si>
-  <si>
-    <t>square-meter</t>
-  </si>
-  <si>
-    <t>area</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>kelvin</t>
-  </si>
-  <si>
-    <t>temperature</t>
-  </si>
-  <si>
     <t>K</t>
-  </si>
-  <si>
-    <t>END</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -119,16 +133,30 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.59996337778862885"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -136,12 +164,46 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="medium">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -446,157 +508,192 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="D1" sqref="D1"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="22.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="26.42578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="8.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="26.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="19.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="30.7109375" style="2"/>
+    <col min="2" max="3" width="30.7109375" style="1"/>
+    <col min="4" max="4" width="30.7109375" style="2"/>
+    <col min="5" max="16384" width="30.7109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="6">
+        <f xml:space="preserve"> SUMPRODUCT((B9:B65536 &lt;&gt; "") / COUNTIF(B9:B65536, B9:B65536 &amp; ""))</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="5" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="B2" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="6">
+        <f xml:space="preserve"> COUNTIF(A8:A65536, "CREATE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="B3" s="6" t="s">
+        <v>13</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="6">
+        <f xml:space="preserve"> COUNTIF(A8:A65536, "UPDATE")</f>
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+    </row>
+    <row r="4" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" s="6">
+        <f xml:space="preserve"> COUNTIF(A8:A65536, "DELETE")</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="B5" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" s="8"/>
+    </row>
+    <row r="6" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B2" t="s">
+      <c r="B6" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" s="8"/>
+    </row>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="8"/>
+      <c r="D7" s="8"/>
+    </row>
+    <row r="8" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" t="s">
-        <v>9</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" t="s">
-        <v>13</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="B8" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E3" t="s">
+      <c r="C8" s="9" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>11</v>
-      </c>
-      <c r="C4" t="s">
-        <v>13</v>
-      </c>
-      <c r="D4" t="s">
+      <c r="D8" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>11</v>
-      </c>
-      <c r="B5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5" t="s">
-        <v>19</v>
-      </c>
-      <c r="E5" t="s">
+    </row>
+    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="3"/>
+      <c r="B9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
+      <c r="C10" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="E6" t="s">
+      <c r="C11" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E11" s="2"/>
+    </row>
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B12" s="1" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>11</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="C12" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C7" t="s">
-        <v>25</v>
-      </c>
-      <c r="D7" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>27</v>
+      <c r="D13" s="2" t="s">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
+  <sheetProtection algorithmName="SHA-512" hashValue="RoLXS/csV/THvkiknfKGiUT+zKUC3UMEl9NSsD6h+5pju0P/IzyJDUsTHG4XxlmpBQLKh8B+oBbfd2BMXjv88w==" saltValue="EdmBTbBImHOWUBu3R4Tw/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <dataValidations count="5">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Description (REQUIRED)" prompt="The description of the unit for the user." sqref="C8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Symbol (REQUIRED)" prompt="The symbol of the unit. E.g.: &quot;m&quot; for &quot;meter&quot;" sqref="D8"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A1048576">
+      <formula1>"CREATE,UPDATE,DELETE"</formula1>
+    </dataValidation>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the possible import operations. If left blank, this line will not be imported. _x000a_This column is not imported into the database; it controls the import process." sqref="A8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Unit name (REQUIRED)" prompt="The unique name of the unit" sqref="B8"/>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="B2" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
--- a/conf-core/src/test/resources/dataloader/units-required-fields-failure-test.xlsx
+++ b/conf-core/src/test/resources/dataloader/units-required-fields-failure-test.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Temp\dataloader-tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\ess-git\ccdb\conf-core\src\test\resources\dataloader\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="/twiC24/jp4QHQmaIXlVKg6zKK36SE+AZawijxc29Fw0bP4RB6x2m3Z+YsFM16dhOi5Q1YcuA5AwNcQeB6W5kg==" workbookSaltValue="mp3CKO0oFlisoDrQArwULQ==" workbookSpinCount="100000" lockStructure="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="35">
   <si>
     <t>Date</t>
   </si>
@@ -119,13 +119,19 @@
   </si>
   <si>
     <t>K</t>
+  </si>
+  <si>
+    <t>Help</t>
+  </si>
+  <si>
+    <t>https://ccdb.esss.lu.se/resources/help/ccdb_conventions.pdf</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +143,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -180,10 +194,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection locked="0"/>
@@ -204,8 +219,11 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -508,14 +526,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E13"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="3" ySplit="8" topLeftCell="D9" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
-      <selection pane="bottomRight" activeCell="D14" sqref="D14"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.7109375" defaultRowHeight="21.95" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
@@ -536,7 +549,7 @@
         <v>17</v>
       </c>
       <c r="E1" s="6">
-        <f xml:space="preserve"> SUMPRODUCT((B9:B65536 &lt;&gt; "") / COUNTIF(B9:B65536, B9:B65536 &amp; ""))</f>
+        <f xml:space="preserve"> SUMPRODUCT((B10:B65537 &lt;&gt; "") / COUNTIF(B10:B65537, B10:B65537 &amp; ""))</f>
         <v>4</v>
       </c>
     </row>
@@ -551,7 +564,7 @@
         <v>8</v>
       </c>
       <c r="E2" s="6">
-        <f xml:space="preserve"> COUNTIF(A8:A65536, "CREATE")</f>
+        <f xml:space="preserve"> COUNTIF(A9:A65537, "CREATE")</f>
         <v>0</v>
       </c>
     </row>
@@ -566,7 +579,7 @@
         <v>9</v>
       </c>
       <c r="E3" s="6">
-        <f xml:space="preserve"> COUNTIF(A8:A65536, "UPDATE")</f>
+        <f xml:space="preserve"> COUNTIF(A9:A65537, "UPDATE")</f>
         <v>3</v>
       </c>
     </row>
@@ -581,7 +594,7 @@
         <v>10</v>
       </c>
       <c r="E4" s="6">
-        <f xml:space="preserve"> COUNTIF(A8:A65536, "DELETE")</f>
+        <f xml:space="preserve"> COUNTIF(A9:A65537, "DELETE")</f>
         <v>0</v>
       </c>
     </row>
@@ -603,95 +616,106 @@
       </c>
       <c r="D6" s="8"/>
     </row>
-    <row r="7" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="8"/>
+    <row r="7" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>34</v>
+      </c>
       <c r="D7" s="8"/>
     </row>
     <row r="8" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="9" t="s">
+      <c r="A8" s="8"/>
+      <c r="D8" s="8"/>
+    </row>
+    <row r="9" spans="1:5" s="6" customFormat="1" ht="21.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B8" s="9" t="s">
+      <c r="B9" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="C8" s="9" t="s">
+      <c r="C9" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="D8" s="9" t="s">
+      <c r="D9" s="9" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="3"/>
-      <c r="B9" s="1" t="s">
+    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="3"/>
+      <c r="B10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C10" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D10" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="10" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C11" s="1" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D11" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="4"/>
-      <c r="B11" s="1" t="s">
+    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C12" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="2" t="s">
+      <c r="D12" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E11" s="2"/>
-    </row>
-    <row r="12" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>28</v>
-      </c>
+      <c r="E12" s="2"/>
     </row>
     <row r="13" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="21.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D13" s="2" t="s">
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="RoLXS/csV/THvkiknfKGiUT+zKUC3UMEl9NSsD6h+5pju0P/IzyJDUsTHG4XxlmpBQLKh8B+oBbfd2BMXjv88w==" saltValue="EdmBTbBImHOWUBu3R4Tw/w==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <dataValidations count="5">
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Description (REQUIRED)" prompt="The description of the unit for the user." sqref="C8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Symbol (REQUIRED)" prompt="The symbol of the unit. E.g.: &quot;m&quot; for &quot;meter&quot;" sqref="D8"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A9:A1048576">
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Description (REQUIRED)" prompt="The description of the unit for the user." sqref="C9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Symbol (REQUIRED)" prompt="The symbol of the unit. E.g.: &quot;m&quot; for &quot;meter&quot;" sqref="D9"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A10:A1048576">
       <formula1>"CREATE,UPDATE,DELETE"</formula1>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the possible import operations. If left blank, this line will not be imported. _x000a_This column is not imported into the database; it controls the import process." sqref="A8"/>
-    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Unit name (REQUIRED)" prompt="The unique name of the unit" sqref="B8"/>
+    <dataValidation allowBlank="1" showInputMessage="1" prompt="Select one of the possible import operations. If left blank, this line will not be imported. _x000a_This column is not imported into the database; it controls the import process." sqref="A9"/>
+    <dataValidation allowBlank="1" showInputMessage="1" promptTitle="Unit name (REQUIRED)" prompt="The unique name of the unit" sqref="B9"/>
   </dataValidations>
+  <hyperlinks>
+    <hyperlink ref="B7" r:id="rId1"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
   <ignoredErrors>
     <ignoredError sqref="B2" numberStoredAsText="1"/>
   </ignoredErrors>
